--- a/GATEWAY/S1#111ONIT0000000/OnitGroup/SIRVa/V.4.42.0.0/accreditamento-checklist_V4.2.xlsx
+++ b/GATEWAY/S1#111ONIT0000000/OnitGroup/SIRVa/V.4.42.0.0/accreditamento-checklist_V4.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\FSE 2.0\it-fse-accreditamento-main\GATEWAY\S1#111ONIT0000000\OnitGroup\SIRVa\V.4.42.0.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF6377C-CD1B-4818-9588-2C014ED5171B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0BF8F2-4792-4F3A-A17C-3DE588D34427}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4299,10 +4299,10 @@
   <dimension ref="A1:T992"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B118" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="O98" sqref="O98"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24074,7 +24074,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{A91886C4-FB60-43A8-ACB2-92795EB561DC}">
           <x14:formula1>
-            <xm:f>'[accreditamento-checklist_V4.1.xlsx]Sheet1'!#REF!</xm:f>
+            <xm:f>'C:\work\FSE 2.0\it-fse-accreditamento-main\GATEWAY\S1#111ONIT0000000\OnitGroup\SIRVa\V.4.42.0.0\[accreditamento-checklist_V4.1.xlsx]Sheet1'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>J101</xm:sqref>
         </x14:dataValidation>

--- a/GATEWAY/S1#111ONIT0000000/OnitGroup/SIRVa/V.4.42.0.0/accreditamento-checklist_V4.2.xlsx
+++ b/GATEWAY/S1#111ONIT0000000/OnitGroup/SIRVa/V.4.42.0.0/accreditamento-checklist_V4.2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\FSE 2.0\it-fse-accreditamento-main\GATEWAY\S1#111ONIT0000000\OnitGroup\SIRVa\V.4.42.0.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\afusaroli\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0BF8F2-4792-4F3A-A17C-3DE588D34427}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC275E8-E45A-4D32-8438-82697B211C59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9204" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="5" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="Summary" sheetId="3" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="4" state="hidden" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$T$147</definedName>
   </definedNames>
@@ -1892,9 +1895,6 @@
     <t xml:space="preserve">4) Se il test NON è applicabile la colonna APPLICABILITA' riporterà NO e dovrà essere compilata esclusivamente la colonna RAZIONALE DI APPLICABILITA' con le motivazioni per cui il test non è applicabile </t>
   </si>
   <si>
-    <t>subject_application_version: 4.42.0.0</t>
-  </si>
-  <si>
     <t>subject_application_vendor:OnitGroup</t>
   </si>
   <si>
@@ -2157,6 +2157,9 @@
   </si>
   <si>
     <t>Viene restituito l'errore:"Campo token JWT non valido. Il campo subject_organization_id non è corretto". Dopo che l'operatore amministratore ha sistemato il dato, effettua il reinvio.</t>
+  </si>
+  <si>
+    <t>subject_application_version: V.4.42.0.0</t>
   </si>
 </sst>
 </file>
@@ -2792,6 +2795,24 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="16" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -2832,24 +2853,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="16" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2926,6 +2929,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4348,14 +4364,14 @@
       <c r="T1" s="28"/>
     </row>
     <row r="2" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="52" t="s">
-        <v>394</v>
-      </c>
-      <c r="D2" s="51"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="58" t="s">
+        <v>393</v>
+      </c>
+      <c r="D2" s="57"/>
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
@@ -4373,14 +4389,14 @@
       <c r="T2" s="28"/>
     </row>
     <row r="3" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="59" t="s">
-        <v>341</v>
-      </c>
-      <c r="D3" s="51"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="65" t="s">
+        <v>340</v>
+      </c>
+      <c r="D3" s="57"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
@@ -4398,12 +4414,12 @@
       <c r="T3" s="28"/>
     </row>
     <row r="4" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="55"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="59" t="s">
-        <v>340</v>
-      </c>
-      <c r="D4" s="51"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="65" t="s">
+        <v>339</v>
+      </c>
+      <c r="D4" s="57"/>
       <c r="E4" s="30"/>
       <c r="F4" s="27"/>
       <c r="G4" s="27"/>
@@ -4422,12 +4438,12 @@
       <c r="T4" s="28"/>
     </row>
     <row r="5" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="57"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="59" t="s">
-        <v>339</v>
-      </c>
-      <c r="D5" s="51"/>
+      <c r="A5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65" t="s">
+        <v>427</v>
+      </c>
+      <c r="D5" s="57"/>
       <c r="F5" s="27"/>
       <c r="G5" s="27"/>
       <c r="H5" s="27"/>
@@ -4445,8 +4461,8 @@
       <c r="T5" s="28"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="48"/>
-      <c r="B6" s="49"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="32"/>
       <c r="F6" s="27"/>
       <c r="G6" s="27"/>
@@ -5021,17 +5037,17 @@
       <c r="E23" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="F23" s="60">
+      <c r="F23" s="48">
         <v>44965</v>
       </c>
-      <c r="G23" s="61" t="s">
+      <c r="G23" s="49" t="s">
+        <v>341</v>
+      </c>
+      <c r="H23" s="49" t="s">
         <v>342</v>
       </c>
-      <c r="H23" s="61" t="s">
+      <c r="I23" s="49" t="s">
         <v>343</v>
-      </c>
-      <c r="I23" s="61" t="s">
-        <v>344</v>
       </c>
       <c r="J23" s="41" t="s">
         <v>84</v>
@@ -5065,17 +5081,17 @@
       <c r="E24" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="F24" s="60">
+      <c r="F24" s="48">
         <v>44965</v>
       </c>
-      <c r="G24" s="61" t="s">
+      <c r="G24" s="49" t="s">
+        <v>344</v>
+      </c>
+      <c r="H24" s="50" t="s">
         <v>345</v>
       </c>
-      <c r="H24" s="62" t="s">
+      <c r="I24" s="49" t="s">
         <v>346</v>
-      </c>
-      <c r="I24" s="61" t="s">
-        <v>347</v>
       </c>
       <c r="J24" s="41" t="s">
         <v>84</v>
@@ -5109,17 +5125,17 @@
       <c r="E25" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="F25" s="60">
+      <c r="F25" s="48">
         <v>44965</v>
       </c>
-      <c r="G25" s="61" t="s">
+      <c r="G25" s="49" t="s">
+        <v>347</v>
+      </c>
+      <c r="H25" s="50" t="s">
         <v>348</v>
       </c>
-      <c r="H25" s="62" t="s">
+      <c r="I25" s="49" t="s">
         <v>349</v>
-      </c>
-      <c r="I25" s="61" t="s">
-        <v>350</v>
       </c>
       <c r="J25" s="41" t="s">
         <v>84</v>
@@ -5153,17 +5169,17 @@
       <c r="E26" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="F26" s="60">
+      <c r="F26" s="48">
         <v>44965</v>
       </c>
-      <c r="G26" s="61" t="s">
+      <c r="G26" s="49" t="s">
+        <v>350</v>
+      </c>
+      <c r="H26" s="49" t="s">
         <v>351</v>
       </c>
-      <c r="H26" s="61" t="s">
+      <c r="I26" s="49" t="s">
         <v>352</v>
-      </c>
-      <c r="I26" s="61" t="s">
-        <v>353</v>
       </c>
       <c r="J26" s="41" t="s">
         <v>84</v>
@@ -5197,17 +5213,17 @@
       <c r="E27" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="F27" s="60">
+      <c r="F27" s="48">
         <v>44965</v>
       </c>
-      <c r="G27" s="61" t="s">
+      <c r="G27" s="49" t="s">
+        <v>353</v>
+      </c>
+      <c r="H27" s="49" t="s">
         <v>354</v>
       </c>
-      <c r="H27" s="61" t="s">
+      <c r="I27" s="49" t="s">
         <v>355</v>
-      </c>
-      <c r="I27" s="61" t="s">
-        <v>356</v>
       </c>
       <c r="J27" s="41" t="s">
         <v>84</v>
@@ -5241,17 +5257,17 @@
       <c r="E28" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="F28" s="60">
+      <c r="F28" s="48">
         <v>44965</v>
       </c>
-      <c r="G28" s="61" t="s">
+      <c r="G28" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="H28" s="49" t="s">
         <v>357</v>
       </c>
-      <c r="H28" s="61" t="s">
+      <c r="I28" s="49" t="s">
         <v>358</v>
-      </c>
-      <c r="I28" s="61" t="s">
-        <v>359</v>
       </c>
       <c r="J28" s="41" t="s">
         <v>84</v>
@@ -5285,17 +5301,17 @@
       <c r="E29" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="F29" s="60">
+      <c r="F29" s="48">
         <v>44965</v>
       </c>
-      <c r="G29" s="61" t="s">
+      <c r="G29" s="49" t="s">
+        <v>359</v>
+      </c>
+      <c r="H29" s="49" t="s">
         <v>360</v>
       </c>
-      <c r="H29" s="61" t="s">
+      <c r="I29" s="49" t="s">
         <v>361</v>
-      </c>
-      <c r="I29" s="61" t="s">
-        <v>362</v>
       </c>
       <c r="J29" s="41" t="s">
         <v>84</v>
@@ -5329,17 +5345,17 @@
       <c r="E30" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="F30" s="60">
+      <c r="F30" s="48">
         <v>44965</v>
       </c>
-      <c r="G30" s="61" t="s">
+      <c r="G30" s="49" t="s">
+        <v>362</v>
+      </c>
+      <c r="H30" s="49" t="s">
         <v>363</v>
       </c>
-      <c r="H30" s="61" t="s">
+      <c r="I30" s="49" t="s">
         <v>364</v>
-      </c>
-      <c r="I30" s="61" t="s">
-        <v>365</v>
       </c>
       <c r="J30" s="41" t="s">
         <v>84</v>
@@ -5493,7 +5509,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="115.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20" ht="101.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="36">
         <v>28</v>
       </c>
@@ -5527,7 +5543,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="115.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:20" ht="101.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="36">
         <v>29</v>
       </c>
@@ -5561,7 +5577,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="115.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:20" ht="101.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="36">
         <v>31</v>
       </c>
@@ -5611,17 +5627,17 @@
       <c r="E38" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="F38" s="60">
+      <c r="F38" s="48">
         <v>44965</v>
       </c>
-      <c r="G38" s="61" t="s">
+      <c r="G38" s="49" t="s">
+        <v>365</v>
+      </c>
+      <c r="H38" s="49" t="s">
         <v>366</v>
       </c>
-      <c r="H38" s="61" t="s">
+      <c r="I38" s="49" t="s">
         <v>367</v>
-      </c>
-      <c r="I38" s="61" t="s">
-        <v>368</v>
       </c>
       <c r="J38" s="41" t="s">
         <v>84</v>
@@ -5637,8 +5653,8 @@
       <c r="O38" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="P38" s="63" t="s">
-        <v>369</v>
+      <c r="P38" s="51" t="s">
+        <v>368</v>
       </c>
       <c r="Q38" s="41"/>
       <c r="R38" s="44"/>
@@ -5663,17 +5679,17 @@
       <c r="E39" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="F39" s="60">
+      <c r="F39" s="48">
         <v>44965</v>
       </c>
-      <c r="G39" s="61" t="s">
+      <c r="G39" s="49" t="s">
+        <v>369</v>
+      </c>
+      <c r="H39" s="49" t="s">
         <v>370</v>
       </c>
-      <c r="H39" s="61" t="s">
-        <v>371</v>
-      </c>
-      <c r="I39" s="61" t="s">
-        <v>368</v>
+      <c r="I39" s="49" t="s">
+        <v>367</v>
       </c>
       <c r="J39" s="41" t="s">
         <v>84</v>
@@ -5689,8 +5705,8 @@
       <c r="O39" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="P39" s="63" t="s">
-        <v>372</v>
+      <c r="P39" s="51" t="s">
+        <v>371</v>
       </c>
       <c r="Q39" s="41"/>
       <c r="R39" s="44"/>
@@ -5699,7 +5715,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="115.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:20" ht="101.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="36">
         <v>35</v>
       </c>
@@ -5851,17 +5867,17 @@
       <c r="E44" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="F44" s="60">
+      <c r="F44" s="48">
         <v>44965</v>
       </c>
-      <c r="G44" s="61" t="s">
+      <c r="G44" s="49" t="s">
+        <v>372</v>
+      </c>
+      <c r="H44" s="49" t="s">
         <v>373</v>
       </c>
-      <c r="H44" s="61" t="s">
-        <v>374</v>
-      </c>
-      <c r="I44" s="61" t="s">
-        <v>368</v>
+      <c r="I44" s="49" t="s">
+        <v>367</v>
       </c>
       <c r="J44" s="41" t="s">
         <v>84</v>
@@ -5878,7 +5894,7 @@
         <v>84</v>
       </c>
       <c r="P44" s="41" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="Q44" s="41"/>
       <c r="R44" s="44"/>
@@ -5903,17 +5919,17 @@
       <c r="E45" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="F45" s="60">
+      <c r="F45" s="48">
         <v>44965</v>
       </c>
-      <c r="G45" s="61" t="s">
+      <c r="G45" s="49" t="s">
+        <v>375</v>
+      </c>
+      <c r="H45" s="49" t="s">
         <v>376</v>
       </c>
-      <c r="H45" s="61" t="s">
-        <v>377</v>
-      </c>
-      <c r="I45" s="61" t="s">
-        <v>368</v>
+      <c r="I45" s="49" t="s">
+        <v>367</v>
       </c>
       <c r="J45" s="41" t="s">
         <v>84</v>
@@ -5929,8 +5945,8 @@
       <c r="O45" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="P45" s="63" t="s">
-        <v>427</v>
+      <c r="P45" s="51" t="s">
+        <v>426</v>
       </c>
       <c r="Q45" s="41"/>
       <c r="R45" s="44"/>
@@ -6110,7 +6126,7 @@
       <c r="N50" s="41"/>
       <c r="O50" s="41"/>
       <c r="P50" s="41" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Q50" s="41"/>
       <c r="R50" s="44" t="s">
@@ -6149,8 +6165,8 @@
       <c r="M51" s="41"/>
       <c r="N51" s="41"/>
       <c r="O51" s="41"/>
-      <c r="P51" s="63" t="s">
-        <v>378</v>
+      <c r="P51" s="51" t="s">
+        <v>377</v>
       </c>
       <c r="Q51" s="41"/>
       <c r="R51" s="44" t="s">
@@ -7649,7 +7665,7 @@
         <v>321</v>
       </c>
       <c r="K95" s="41" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L95" s="41"/>
       <c r="M95" s="41"/>
@@ -7687,7 +7703,7 @@
         <v>321</v>
       </c>
       <c r="K96" s="41" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L96" s="41"/>
       <c r="M96" s="41"/>
@@ -7725,13 +7741,13 @@
         <v>321</v>
       </c>
       <c r="K97" s="41" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="L97" s="41"/>
       <c r="M97" s="41"/>
       <c r="N97" s="41"/>
       <c r="O97" s="41"/>
-      <c r="P97" s="64"/>
+      <c r="P97" s="52"/>
       <c r="Q97" s="41"/>
       <c r="R97" s="44"/>
       <c r="S97" s="42"/>
@@ -7755,17 +7771,17 @@
       <c r="E98" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="F98" s="60">
+      <c r="F98" s="48">
         <v>44965</v>
       </c>
-      <c r="G98" s="61" t="s">
+      <c r="G98" s="49" t="s">
+        <v>381</v>
+      </c>
+      <c r="H98" s="49" t="s">
         <v>382</v>
       </c>
-      <c r="H98" s="61" t="s">
+      <c r="I98" s="49" t="s">
         <v>383</v>
-      </c>
-      <c r="I98" s="61" t="s">
-        <v>384</v>
       </c>
       <c r="J98" s="41" t="s">
         <v>84</v>
@@ -7782,7 +7798,7 @@
         <v>84</v>
       </c>
       <c r="P98" s="41" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="Q98" s="41"/>
       <c r="R98" s="44"/>
@@ -7815,7 +7831,7 @@
         <v>321</v>
       </c>
       <c r="K99" s="41" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L99" s="41"/>
       <c r="M99" s="41"/>
@@ -7853,7 +7869,7 @@
         <v>321</v>
       </c>
       <c r="K100" s="41" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L100" s="41"/>
       <c r="M100" s="41"/>
@@ -7887,11 +7903,11 @@
       <c r="G101" s="40"/>
       <c r="H101" s="40"/>
       <c r="I101" s="40"/>
-      <c r="J101" s="63" t="s">
+      <c r="J101" s="51" t="s">
         <v>321</v>
       </c>
       <c r="K101" s="41" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L101" s="41"/>
       <c r="M101" s="41"/>
@@ -7929,7 +7945,7 @@
         <v>321</v>
       </c>
       <c r="K102" s="41" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L102" s="41"/>
       <c r="M102" s="41"/>
@@ -7959,17 +7975,17 @@
       <c r="E103" s="38" t="s">
         <v>215</v>
       </c>
-      <c r="F103" s="60">
+      <c r="F103" s="48">
         <v>44965</v>
       </c>
-      <c r="G103" s="61" t="s">
+      <c r="G103" s="49" t="s">
+        <v>389</v>
+      </c>
+      <c r="H103" s="49" t="s">
         <v>390</v>
       </c>
-      <c r="H103" s="61" t="s">
+      <c r="I103" s="49" t="s">
         <v>391</v>
-      </c>
-      <c r="I103" s="61" t="s">
-        <v>392</v>
       </c>
       <c r="J103" s="41" t="s">
         <v>84</v>
@@ -7985,8 +8001,8 @@
       <c r="O103" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="P103" s="64" t="s">
-        <v>393</v>
+      <c r="P103" s="52" t="s">
+        <v>392</v>
       </c>
       <c r="Q103" s="41"/>
       <c r="R103" s="44"/>
@@ -8019,7 +8035,7 @@
         <v>321</v>
       </c>
       <c r="K104" s="41" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="L104" s="41"/>
       <c r="M104" s="41"/>
@@ -8049,17 +8065,17 @@
       <c r="E105" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="F105" s="60">
+      <c r="F105" s="48">
         <v>44965</v>
       </c>
-      <c r="G105" s="61" t="s">
+      <c r="G105" s="49" t="s">
+        <v>395</v>
+      </c>
+      <c r="H105" s="49" t="s">
         <v>396</v>
       </c>
-      <c r="H105" s="61" t="s">
+      <c r="I105" s="49" t="s">
         <v>397</v>
-      </c>
-      <c r="I105" s="61" t="s">
-        <v>398</v>
       </c>
       <c r="J105" s="41" t="s">
         <v>84</v>
@@ -8075,8 +8091,8 @@
       <c r="O105" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="P105" s="64" t="s">
-        <v>399</v>
+      <c r="P105" s="52" t="s">
+        <v>398</v>
       </c>
       <c r="Q105" s="41"/>
       <c r="R105" s="44"/>
@@ -8109,7 +8125,7 @@
         <v>321</v>
       </c>
       <c r="K106" s="41" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L106" s="41"/>
       <c r="M106" s="41"/>
@@ -8139,20 +8155,20 @@
       <c r="E107" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="F107" s="60">
+      <c r="F107" s="48">
         <v>44965</v>
       </c>
-      <c r="G107" s="61" t="s">
+      <c r="G107" s="49" t="s">
+        <v>400</v>
+      </c>
+      <c r="H107" s="49" t="s">
         <v>401</v>
       </c>
-      <c r="H107" s="61" t="s">
+      <c r="I107" s="49" t="s">
         <v>402</v>
       </c>
-      <c r="I107" s="61" t="s">
+      <c r="J107" s="41" t="s">
         <v>403</v>
-      </c>
-      <c r="J107" s="41" t="s">
-        <v>404</v>
       </c>
       <c r="K107" s="41"/>
       <c r="L107" s="41" t="s">
@@ -8166,7 +8182,7 @@
         <v>84</v>
       </c>
       <c r="P107" s="41" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="Q107" s="41"/>
       <c r="R107" s="44"/>
@@ -8199,7 +8215,7 @@
         <v>321</v>
       </c>
       <c r="K108" s="41" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L108" s="41"/>
       <c r="M108" s="41"/>
@@ -8237,7 +8253,7 @@
         <v>321</v>
       </c>
       <c r="K109" s="41" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L109" s="41"/>
       <c r="M109" s="41"/>
@@ -8275,7 +8291,7 @@
         <v>321</v>
       </c>
       <c r="K110" s="41" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="L110" s="41"/>
       <c r="M110" s="41"/>
@@ -8305,17 +8321,17 @@
       <c r="E111" s="38" t="s">
         <v>231</v>
       </c>
-      <c r="F111" s="60">
+      <c r="F111" s="48">
         <v>44965</v>
       </c>
-      <c r="G111" s="65" t="s">
+      <c r="G111" s="53" t="s">
+        <v>406</v>
+      </c>
+      <c r="H111" s="49" t="s">
         <v>407</v>
       </c>
-      <c r="H111" s="61" t="s">
+      <c r="I111" s="49" t="s">
         <v>408</v>
-      </c>
-      <c r="I111" s="61" t="s">
-        <v>409</v>
       </c>
       <c r="J111" s="41" t="s">
         <v>84</v>
@@ -8332,7 +8348,7 @@
         <v>84</v>
       </c>
       <c r="P111" s="41" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="Q111" s="41"/>
       <c r="R111" s="44"/>
@@ -8365,7 +8381,7 @@
         <v>321</v>
       </c>
       <c r="K112" s="41" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L112" s="41"/>
       <c r="M112" s="41"/>
@@ -8403,7 +8419,7 @@
         <v>321</v>
       </c>
       <c r="K113" s="41" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L113" s="41"/>
       <c r="M113" s="41"/>
@@ -8441,7 +8457,7 @@
         <v>321</v>
       </c>
       <c r="K114" s="41" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L114" s="41"/>
       <c r="M114" s="41"/>
@@ -8471,17 +8487,17 @@
       <c r="E115" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="F115" s="60">
+      <c r="F115" s="48">
         <v>44965</v>
       </c>
-      <c r="G115" s="61" t="s">
+      <c r="G115" s="49" t="s">
+        <v>409</v>
+      </c>
+      <c r="H115" s="49" t="s">
         <v>410</v>
       </c>
-      <c r="H115" s="61" t="s">
+      <c r="I115" s="49" t="s">
         <v>411</v>
-      </c>
-      <c r="I115" s="61" t="s">
-        <v>412</v>
       </c>
       <c r="J115" s="41" t="s">
         <v>84</v>
@@ -8498,7 +8514,7 @@
         <v>84</v>
       </c>
       <c r="P115" s="41" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="Q115" s="41"/>
       <c r="R115" s="44"/>
@@ -8531,7 +8547,7 @@
         <v>321</v>
       </c>
       <c r="K116" s="41" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L116" s="41"/>
       <c r="M116" s="41"/>
@@ -8561,17 +8577,17 @@
       <c r="E117" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="F117" s="60">
+      <c r="F117" s="48">
         <v>44965</v>
       </c>
-      <c r="G117" s="61" t="s">
+      <c r="G117" s="49" t="s">
+        <v>413</v>
+      </c>
+      <c r="H117" s="49" t="s">
         <v>414</v>
       </c>
-      <c r="H117" s="61" t="s">
+      <c r="I117" s="49" t="s">
         <v>415</v>
-      </c>
-      <c r="I117" s="61" t="s">
-        <v>416</v>
       </c>
       <c r="J117" s="41" t="s">
         <v>84</v>
@@ -8588,7 +8604,7 @@
         <v>84</v>
       </c>
       <c r="P117" s="41" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q117" s="41"/>
       <c r="R117" s="44"/>
@@ -8621,7 +8637,7 @@
         <v>321</v>
       </c>
       <c r="K118" s="41" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="L118" s="41"/>
       <c r="M118" s="41"/>
@@ -8651,17 +8667,17 @@
       <c r="E119" s="38" t="s">
         <v>247</v>
       </c>
-      <c r="F119" s="60">
+      <c r="F119" s="48">
         <v>44965</v>
       </c>
-      <c r="G119" s="61" t="s">
+      <c r="G119" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="H119" s="49" t="s">
         <v>418</v>
       </c>
-      <c r="H119" s="61" t="s">
+      <c r="I119" s="49" t="s">
         <v>419</v>
-      </c>
-      <c r="I119" s="61" t="s">
-        <v>420</v>
       </c>
       <c r="J119" s="41" t="s">
         <v>84</v>
@@ -8678,7 +8694,7 @@
         <v>84</v>
       </c>
       <c r="P119" s="41" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="Q119" s="41"/>
       <c r="R119" s="44"/>
@@ -8711,7 +8727,7 @@
         <v>321</v>
       </c>
       <c r="K120" s="41" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L120" s="41"/>
       <c r="M120" s="41"/>
@@ -8749,7 +8765,7 @@
         <v>321</v>
       </c>
       <c r="K121" s="41" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L121" s="41"/>
       <c r="M121" s="41"/>
@@ -8779,17 +8795,17 @@
       <c r="E122" s="38" t="s">
         <v>253</v>
       </c>
-      <c r="F122" s="60">
+      <c r="F122" s="48">
         <v>44965</v>
       </c>
-      <c r="G122" s="61" t="s">
+      <c r="G122" s="49" t="s">
+        <v>422</v>
+      </c>
+      <c r="H122" s="49" t="s">
         <v>423</v>
       </c>
-      <c r="H122" s="61" t="s">
+      <c r="I122" s="49" t="s">
         <v>424</v>
-      </c>
-      <c r="I122" s="61" t="s">
-        <v>425</v>
       </c>
       <c r="J122" s="41" t="s">
         <v>84</v>
@@ -8805,8 +8821,8 @@
       <c r="O122" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="P122" s="64" t="s">
-        <v>421</v>
+      <c r="P122" s="52" t="s">
+        <v>420</v>
       </c>
       <c r="Q122" s="41"/>
       <c r="R122" s="44"/>
@@ -26245,6 +26261,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b4730850ec8220df2460bf5d75163141">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c2168c1cf3d5a08369735c09b24c7b76" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -26475,27 +26511,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAAC13FE-B745-460A-BC76-FAEE62F3EBA1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3F02EBF-A415-4FB6-A4E4-A6920890B7C4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6395DAD-5B77-46ED-9147-4C5A384B6E5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26514,31 +26555,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3F02EBF-A415-4FB6-A4E4-A6920890B7C4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAAC13FE-B745-460A-BC76-FAEE62F3EBA1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>

--- a/GATEWAY/S1#111ONIT0000000/OnitGroup/SIRVa/V.4.42.0.0/accreditamento-checklist_V4.2.xlsx
+++ b/GATEWAY/S1#111ONIT0000000/OnitGroup/SIRVa/V.4.42.0.0/accreditamento-checklist_V4.2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\afusaroli\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\FSE 2.0\it-fse-accreditamento-main\GATEWAY\S1#111ONIT0000000\OnitGroup\SIRVa\V.4.42.0.0\4-Certificato Vaccinale\Test1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC275E8-E45A-4D32-8438-82697B211C59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6444E06-B2B2-4BCE-96A9-A65189C4039A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9204" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8364" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="5" r:id="rId1"/>
@@ -1901,78 +1901,9 @@
     <t>subject_application_id:SIRVa</t>
   </si>
   <si>
-    <t>2023-02-08T10:29:06Z</t>
-  </si>
-  <si>
-    <t>387edac49bc90186</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.301.4.4.18f93001cf43131d4ddd4aa7d9033052325fac194b272c5ce7731e6ef3cf036f.f2bc4cea83^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-02-08T10:37:50Z</t>
-  </si>
-  <si>
-    <t>b0ff5cde9ed8d47d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.301.4.4.167d91771de940cb0bdf4f18ab87e314547613a170b46c6735d026801c544687.968e5067df^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-02-08T10:55:30Z</t>
-  </si>
-  <si>
-    <t>1885e476c1b92014</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.301.4.4.b7dbff4495e09e3a58b4fe30bfb35e193daf31b09fa087f1a20ad37f001ecb5b.5f5fbab28c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-02-08T11:33:44Z</t>
-  </si>
-  <si>
-    <t>46535bc1f4360b76</t>
-  </si>
-  <si>
     <t>2.16.840.1.113883.2.9.2.301.4.4.486de6ec417a5e210c978267b0d1ef467bebc88245de0a693a615bd80b48537a.9f86a71cef^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2023-02-08T15:08:20Z</t>
-  </si>
-  <si>
-    <t>c31d9e9d2bf4c615</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.301.4.4.1dfb0b67e4e771502b6fbc5c19319c2d9052a489bfc5c9a64e238b1124bc1cb0.a772b4ba51^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-02-08T15:17:01Z</t>
-  </si>
-  <si>
-    <t>9a7269de3329ac4b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.301.4.4.7da145ed84d814f754d76a359658b40e66bd5c82887b040ce3e3a9f76dc9063f.e800317ebd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-02-08T15:24:17Z</t>
-  </si>
-  <si>
-    <t>747fd01e7f4bae12</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.301.4.4.3ed1bf8f9fb51f1798244223dabd1cde5cbea4e54d51e045966ce72511133f06.61f88edfe7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-02-08T15:31:49Z</t>
-  </si>
-  <si>
-    <t>35e5fda7d8cd3d37</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.301.4.4.622fa203554d3544da2eb20abaa415e69d7234adbbd7237c31944f2dd8af5239.9aea0a543d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2023-02-08T11:42:55Z</t>
   </si>
   <si>
@@ -2160,6 +2091,75 @@
   </si>
   <si>
     <t>subject_application_version: V.4.42.0.0</t>
+  </si>
+  <si>
+    <t>7afd7f499a530345</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.301.4.4.18f93001cf43131d4ddd4aa7d9033052325fac194b272c5ce7731e6ef3cf036f.ccbac8b49e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-03-08T12:16:47Z</t>
+  </si>
+  <si>
+    <t>2023-03-08T12:22:14Z</t>
+  </si>
+  <si>
+    <t>df66e0f21bb0bbcf</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.301.4.4.167d91771de940cb0bdf4f18ab87e314547613a170b46c6735d026801c544687.7c70bafed9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>434f3db5e58f65d7</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.301.4.4.b7dbff4495e09e3a58b4fe30bfb35e193daf31b09fa087f1a20ad37f001ecb5b.e2189cc949^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-03-08T12:27:25Z</t>
+  </si>
+  <si>
+    <t>ac00a7442a55b09d</t>
+  </si>
+  <si>
+    <t>2023-03-08T12:30:01Z</t>
+  </si>
+  <si>
+    <t>c9191232e58c8aa3</t>
+  </si>
+  <si>
+    <t>2023-03-08T14:14:27Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.301.4.4.1dfb0b67e4e771502b6fbc5c19319c2d9052a489bfc5c9a64e238b1124bc1cb0.b5cb235f22^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>f71f01413dbffd9d</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.301.4.4.7da145ed84d814f754d76a359658b40e66bd5c82887b040ce3e3a9f76dc9063f.bb91af4214^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-03-08T14:17:44Z</t>
+  </si>
+  <si>
+    <t>09c66b9575030a8c</t>
+  </si>
+  <si>
+    <t>2023-03-08T14:20:19Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.301.4.4.3ed1bf8f9fb51f1798244223dabd1cde5cbea4e54d51e045966ce72511133f06.b059f6754b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-03-08T14:22:33Z</t>
+  </si>
+  <si>
+    <t>c9b700f82459bf75</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.301.4.4.622fa203554d3544da2eb20abaa415e69d7234adbbd7237c31944f2dd8af5239.1585cab492^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -4315,10 +4315,10 @@
   <dimension ref="A1:T992"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B118" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5:D5"/>
+      <selection pane="bottomRight" activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4369,7 +4369,7 @@
       </c>
       <c r="B2" s="57"/>
       <c r="C2" s="58" t="s">
-        <v>393</v>
+        <v>370</v>
       </c>
       <c r="D2" s="57"/>
       <c r="F2" s="27"/>
@@ -4441,7 +4441,7 @@
       <c r="A5" s="63"/>
       <c r="B5" s="64"/>
       <c r="C5" s="65" t="s">
-        <v>427</v>
+        <v>404</v>
       </c>
       <c r="D5" s="57"/>
       <c r="F5" s="27"/>
@@ -5038,16 +5038,16 @@
         <v>57</v>
       </c>
       <c r="F23" s="48">
-        <v>44965</v>
+        <v>44993</v>
       </c>
       <c r="G23" s="49" t="s">
-        <v>341</v>
+        <v>407</v>
       </c>
       <c r="H23" s="49" t="s">
-        <v>342</v>
+        <v>405</v>
       </c>
       <c r="I23" s="49" t="s">
-        <v>343</v>
+        <v>406</v>
       </c>
       <c r="J23" s="41" t="s">
         <v>84</v>
@@ -5082,16 +5082,16 @@
         <v>59</v>
       </c>
       <c r="F24" s="48">
-        <v>44965</v>
+        <v>44993</v>
       </c>
       <c r="G24" s="49" t="s">
-        <v>344</v>
+        <v>408</v>
       </c>
       <c r="H24" s="50" t="s">
-        <v>345</v>
+        <v>409</v>
       </c>
       <c r="I24" s="49" t="s">
-        <v>346</v>
+        <v>410</v>
       </c>
       <c r="J24" s="41" t="s">
         <v>84</v>
@@ -5126,16 +5126,16 @@
         <v>61</v>
       </c>
       <c r="F25" s="48">
-        <v>44965</v>
+        <v>44993</v>
       </c>
       <c r="G25" s="49" t="s">
-        <v>347</v>
+        <v>413</v>
       </c>
       <c r="H25" s="50" t="s">
-        <v>348</v>
+        <v>411</v>
       </c>
       <c r="I25" s="49" t="s">
-        <v>349</v>
+        <v>412</v>
       </c>
       <c r="J25" s="41" t="s">
         <v>84</v>
@@ -5170,16 +5170,16 @@
         <v>63</v>
       </c>
       <c r="F26" s="48">
-        <v>44965</v>
+        <v>44993</v>
       </c>
       <c r="G26" s="49" t="s">
-        <v>350</v>
+        <v>415</v>
       </c>
       <c r="H26" s="49" t="s">
-        <v>351</v>
+        <v>414</v>
       </c>
       <c r="I26" s="49" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="J26" s="41" t="s">
         <v>84</v>
@@ -5214,16 +5214,16 @@
         <v>66</v>
       </c>
       <c r="F27" s="48">
-        <v>44965</v>
+        <v>44993</v>
       </c>
       <c r="G27" s="49" t="s">
-        <v>353</v>
+        <v>417</v>
       </c>
       <c r="H27" s="49" t="s">
-        <v>354</v>
+        <v>416</v>
       </c>
       <c r="I27" s="49" t="s">
-        <v>355</v>
+        <v>418</v>
       </c>
       <c r="J27" s="41" t="s">
         <v>84</v>
@@ -5258,16 +5258,16 @@
         <v>68</v>
       </c>
       <c r="F28" s="48">
-        <v>44965</v>
+        <v>44993</v>
       </c>
       <c r="G28" s="49" t="s">
-        <v>356</v>
+        <v>421</v>
       </c>
       <c r="H28" s="49" t="s">
-        <v>357</v>
+        <v>419</v>
       </c>
       <c r="I28" s="49" t="s">
-        <v>358</v>
+        <v>420</v>
       </c>
       <c r="J28" s="41" t="s">
         <v>84</v>
@@ -5302,16 +5302,16 @@
         <v>70</v>
       </c>
       <c r="F29" s="48">
-        <v>44965</v>
+        <v>44993</v>
       </c>
       <c r="G29" s="49" t="s">
-        <v>359</v>
+        <v>423</v>
       </c>
       <c r="H29" s="49" t="s">
-        <v>360</v>
+        <v>422</v>
       </c>
       <c r="I29" s="49" t="s">
-        <v>361</v>
+        <v>424</v>
       </c>
       <c r="J29" s="41" t="s">
         <v>84</v>
@@ -5346,16 +5346,16 @@
         <v>72</v>
       </c>
       <c r="F30" s="48">
-        <v>44965</v>
+        <v>44993</v>
       </c>
       <c r="G30" s="49" t="s">
-        <v>362</v>
+        <v>425</v>
       </c>
       <c r="H30" s="49" t="s">
-        <v>363</v>
+        <v>426</v>
       </c>
       <c r="I30" s="49" t="s">
-        <v>364</v>
+        <v>427</v>
       </c>
       <c r="J30" s="41" t="s">
         <v>84</v>
@@ -5631,13 +5631,13 @@
         <v>44965</v>
       </c>
       <c r="G38" s="49" t="s">
-        <v>365</v>
+        <v>342</v>
       </c>
       <c r="H38" s="49" t="s">
-        <v>366</v>
+        <v>343</v>
       </c>
       <c r="I38" s="49" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="J38" s="41" t="s">
         <v>84</v>
@@ -5654,7 +5654,7 @@
         <v>84</v>
       </c>
       <c r="P38" s="51" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="Q38" s="41"/>
       <c r="R38" s="44"/>
@@ -5683,13 +5683,13 @@
         <v>44965</v>
       </c>
       <c r="G39" s="49" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="H39" s="49" t="s">
-        <v>370</v>
+        <v>347</v>
       </c>
       <c r="I39" s="49" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="J39" s="41" t="s">
         <v>84</v>
@@ -5706,7 +5706,7 @@
         <v>84</v>
       </c>
       <c r="P39" s="51" t="s">
-        <v>371</v>
+        <v>348</v>
       </c>
       <c r="Q39" s="41"/>
       <c r="R39" s="44"/>
@@ -5871,13 +5871,13 @@
         <v>44965</v>
       </c>
       <c r="G44" s="49" t="s">
-        <v>372</v>
+        <v>349</v>
       </c>
       <c r="H44" s="49" t="s">
-        <v>373</v>
+        <v>350</v>
       </c>
       <c r="I44" s="49" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="J44" s="41" t="s">
         <v>84</v>
@@ -5894,7 +5894,7 @@
         <v>84</v>
       </c>
       <c r="P44" s="41" t="s">
-        <v>374</v>
+        <v>351</v>
       </c>
       <c r="Q44" s="41"/>
       <c r="R44" s="44"/>
@@ -5923,13 +5923,13 @@
         <v>44965</v>
       </c>
       <c r="G45" s="49" t="s">
-        <v>375</v>
+        <v>352</v>
       </c>
       <c r="H45" s="49" t="s">
-        <v>376</v>
+        <v>353</v>
       </c>
       <c r="I45" s="49" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="J45" s="41" t="s">
         <v>84</v>
@@ -5946,7 +5946,7 @@
         <v>84</v>
       </c>
       <c r="P45" s="51" t="s">
-        <v>426</v>
+        <v>403</v>
       </c>
       <c r="Q45" s="41"/>
       <c r="R45" s="44"/>
@@ -6126,7 +6126,7 @@
       <c r="N50" s="41"/>
       <c r="O50" s="41"/>
       <c r="P50" s="41" t="s">
-        <v>377</v>
+        <v>354</v>
       </c>
       <c r="Q50" s="41"/>
       <c r="R50" s="44" t="s">
@@ -6166,7 +6166,7 @@
       <c r="N51" s="41"/>
       <c r="O51" s="41"/>
       <c r="P51" s="51" t="s">
-        <v>377</v>
+        <v>354</v>
       </c>
       <c r="Q51" s="41"/>
       <c r="R51" s="44" t="s">
@@ -7665,7 +7665,7 @@
         <v>321</v>
       </c>
       <c r="K95" s="41" t="s">
-        <v>378</v>
+        <v>355</v>
       </c>
       <c r="L95" s="41"/>
       <c r="M95" s="41"/>
@@ -7703,7 +7703,7 @@
         <v>321</v>
       </c>
       <c r="K96" s="41" t="s">
-        <v>379</v>
+        <v>356</v>
       </c>
       <c r="L96" s="41"/>
       <c r="M96" s="41"/>
@@ -7741,7 +7741,7 @@
         <v>321</v>
       </c>
       <c r="K97" s="41" t="s">
-        <v>380</v>
+        <v>357</v>
       </c>
       <c r="L97" s="41"/>
       <c r="M97" s="41"/>
@@ -7775,13 +7775,13 @@
         <v>44965</v>
       </c>
       <c r="G98" s="49" t="s">
-        <v>381</v>
+        <v>358</v>
       </c>
       <c r="H98" s="49" t="s">
-        <v>382</v>
+        <v>359</v>
       </c>
       <c r="I98" s="49" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
       <c r="J98" s="41" t="s">
         <v>84</v>
@@ -7798,7 +7798,7 @@
         <v>84</v>
       </c>
       <c r="P98" s="41" t="s">
-        <v>384</v>
+        <v>361</v>
       </c>
       <c r="Q98" s="41"/>
       <c r="R98" s="44"/>
@@ -7831,7 +7831,7 @@
         <v>321</v>
       </c>
       <c r="K99" s="41" t="s">
-        <v>385</v>
+        <v>362</v>
       </c>
       <c r="L99" s="41"/>
       <c r="M99" s="41"/>
@@ -7869,7 +7869,7 @@
         <v>321</v>
       </c>
       <c r="K100" s="41" t="s">
-        <v>386</v>
+        <v>363</v>
       </c>
       <c r="L100" s="41"/>
       <c r="M100" s="41"/>
@@ -7907,7 +7907,7 @@
         <v>321</v>
       </c>
       <c r="K101" s="41" t="s">
-        <v>387</v>
+        <v>364</v>
       </c>
       <c r="L101" s="41"/>
       <c r="M101" s="41"/>
@@ -7945,7 +7945,7 @@
         <v>321</v>
       </c>
       <c r="K102" s="41" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
       <c r="L102" s="41"/>
       <c r="M102" s="41"/>
@@ -7979,13 +7979,13 @@
         <v>44965</v>
       </c>
       <c r="G103" s="49" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="H103" s="49" t="s">
-        <v>390</v>
+        <v>367</v>
       </c>
       <c r="I103" s="49" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="J103" s="41" t="s">
         <v>84</v>
@@ -8002,7 +8002,7 @@
         <v>84</v>
       </c>
       <c r="P103" s="52" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="Q103" s="41"/>
       <c r="R103" s="44"/>
@@ -8035,7 +8035,7 @@
         <v>321</v>
       </c>
       <c r="K104" s="41" t="s">
-        <v>394</v>
+        <v>371</v>
       </c>
       <c r="L104" s="41"/>
       <c r="M104" s="41"/>
@@ -8069,13 +8069,13 @@
         <v>44965</v>
       </c>
       <c r="G105" s="49" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
       <c r="H105" s="49" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
       <c r="I105" s="49" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
       <c r="J105" s="41" t="s">
         <v>84</v>
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="P105" s="52" t="s">
-        <v>398</v>
+        <v>375</v>
       </c>
       <c r="Q105" s="41"/>
       <c r="R105" s="44"/>
@@ -8125,7 +8125,7 @@
         <v>321</v>
       </c>
       <c r="K106" s="41" t="s">
-        <v>399</v>
+        <v>376</v>
       </c>
       <c r="L106" s="41"/>
       <c r="M106" s="41"/>
@@ -8159,16 +8159,16 @@
         <v>44965</v>
       </c>
       <c r="G107" s="49" t="s">
-        <v>400</v>
+        <v>377</v>
       </c>
       <c r="H107" s="49" t="s">
-        <v>401</v>
+        <v>378</v>
       </c>
       <c r="I107" s="49" t="s">
-        <v>402</v>
+        <v>379</v>
       </c>
       <c r="J107" s="41" t="s">
-        <v>403</v>
+        <v>380</v>
       </c>
       <c r="K107" s="41"/>
       <c r="L107" s="41" t="s">
@@ -8182,7 +8182,7 @@
         <v>84</v>
       </c>
       <c r="P107" s="41" t="s">
-        <v>404</v>
+        <v>381</v>
       </c>
       <c r="Q107" s="41"/>
       <c r="R107" s="44"/>
@@ -8215,7 +8215,7 @@
         <v>321</v>
       </c>
       <c r="K108" s="41" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="L108" s="41"/>
       <c r="M108" s="41"/>
@@ -8253,7 +8253,7 @@
         <v>321</v>
       </c>
       <c r="K109" s="41" t="s">
-        <v>379</v>
+        <v>356</v>
       </c>
       <c r="L109" s="41"/>
       <c r="M109" s="41"/>
@@ -8291,7 +8291,7 @@
         <v>321</v>
       </c>
       <c r="K110" s="41" t="s">
-        <v>380</v>
+        <v>357</v>
       </c>
       <c r="L110" s="41"/>
       <c r="M110" s="41"/>
@@ -8325,13 +8325,13 @@
         <v>44965</v>
       </c>
       <c r="G111" s="53" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="H111" s="49" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="I111" s="49" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="J111" s="41" t="s">
         <v>84</v>
@@ -8348,7 +8348,7 @@
         <v>84</v>
       </c>
       <c r="P111" s="41" t="s">
-        <v>384</v>
+        <v>361</v>
       </c>
       <c r="Q111" s="41"/>
       <c r="R111" s="44"/>
@@ -8381,7 +8381,7 @@
         <v>321</v>
       </c>
       <c r="K112" s="41" t="s">
-        <v>385</v>
+        <v>362</v>
       </c>
       <c r="L112" s="41"/>
       <c r="M112" s="41"/>
@@ -8419,7 +8419,7 @@
         <v>321</v>
       </c>
       <c r="K113" s="41" t="s">
-        <v>386</v>
+        <v>363</v>
       </c>
       <c r="L113" s="41"/>
       <c r="M113" s="41"/>
@@ -8457,7 +8457,7 @@
         <v>321</v>
       </c>
       <c r="K114" s="41" t="s">
-        <v>425</v>
+        <v>402</v>
       </c>
       <c r="L114" s="41"/>
       <c r="M114" s="41"/>
@@ -8491,13 +8491,13 @@
         <v>44965</v>
       </c>
       <c r="G115" s="49" t="s">
-        <v>409</v>
+        <v>386</v>
       </c>
       <c r="H115" s="49" t="s">
-        <v>410</v>
+        <v>387</v>
       </c>
       <c r="I115" s="49" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="J115" s="41" t="s">
         <v>84</v>
@@ -8514,7 +8514,7 @@
         <v>84</v>
       </c>
       <c r="P115" s="41" t="s">
-        <v>412</v>
+        <v>389</v>
       </c>
       <c r="Q115" s="41"/>
       <c r="R115" s="44"/>
@@ -8547,7 +8547,7 @@
         <v>321</v>
       </c>
       <c r="K116" s="41" t="s">
-        <v>399</v>
+        <v>376</v>
       </c>
       <c r="L116" s="41"/>
       <c r="M116" s="41"/>
@@ -8581,13 +8581,13 @@
         <v>44965</v>
       </c>
       <c r="G117" s="49" t="s">
-        <v>413</v>
+        <v>390</v>
       </c>
       <c r="H117" s="49" t="s">
-        <v>414</v>
+        <v>391</v>
       </c>
       <c r="I117" s="49" t="s">
-        <v>415</v>
+        <v>392</v>
       </c>
       <c r="J117" s="41" t="s">
         <v>84</v>
@@ -8604,7 +8604,7 @@
         <v>84</v>
       </c>
       <c r="P117" s="41" t="s">
-        <v>416</v>
+        <v>393</v>
       </c>
       <c r="Q117" s="41"/>
       <c r="R117" s="44"/>
@@ -8637,7 +8637,7 @@
         <v>321</v>
       </c>
       <c r="K118" s="41" t="s">
-        <v>394</v>
+        <v>371</v>
       </c>
       <c r="L118" s="41"/>
       <c r="M118" s="41"/>
@@ -8671,13 +8671,13 @@
         <v>44965</v>
       </c>
       <c r="G119" s="49" t="s">
-        <v>417</v>
+        <v>394</v>
       </c>
       <c r="H119" s="49" t="s">
-        <v>418</v>
+        <v>395</v>
       </c>
       <c r="I119" s="49" t="s">
-        <v>419</v>
+        <v>396</v>
       </c>
       <c r="J119" s="41" t="s">
         <v>84</v>
@@ -8694,7 +8694,7 @@
         <v>84</v>
       </c>
       <c r="P119" s="41" t="s">
-        <v>420</v>
+        <v>397</v>
       </c>
       <c r="Q119" s="41"/>
       <c r="R119" s="44"/>
@@ -8727,7 +8727,7 @@
         <v>321</v>
       </c>
       <c r="K120" s="41" t="s">
-        <v>399</v>
+        <v>376</v>
       </c>
       <c r="L120" s="41"/>
       <c r="M120" s="41"/>
@@ -8765,7 +8765,7 @@
         <v>321</v>
       </c>
       <c r="K121" s="41" t="s">
-        <v>421</v>
+        <v>398</v>
       </c>
       <c r="L121" s="41"/>
       <c r="M121" s="41"/>
@@ -8799,13 +8799,13 @@
         <v>44965</v>
       </c>
       <c r="G122" s="49" t="s">
-        <v>422</v>
+        <v>399</v>
       </c>
       <c r="H122" s="49" t="s">
-        <v>423</v>
+        <v>400</v>
       </c>
       <c r="I122" s="49" t="s">
-        <v>424</v>
+        <v>401</v>
       </c>
       <c r="J122" s="41" t="s">
         <v>84</v>
@@ -8822,7 +8822,7 @@
         <v>84</v>
       </c>
       <c r="P122" s="52" t="s">
-        <v>420</v>
+        <v>397</v>
       </c>
       <c r="Q122" s="41"/>
       <c r="R122" s="44"/>
@@ -26261,17 +26261,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -26280,7 +26269,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b4730850ec8220df2460bf5d75163141">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c2168c1cf3d5a08369735c09b24c7b76" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -26511,24 +26500,18 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAAC13FE-B745-460A-BC76-FAEE62F3EBA1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3F02EBF-A415-4FB6-A4E4-A6920890B7C4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -26536,7 +26519,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6395DAD-5B77-46ED-9147-4C5A384B6E5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26555,6 +26538,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAAC13FE-B745-460A-BC76-FAEE62F3EBA1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>

--- a/GATEWAY/S1#111ONIT0000000/OnitGroup/SIRVa/V.4.42.0.0/accreditamento-checklist_V4.2.xlsx
+++ b/GATEWAY/S1#111ONIT0000000/OnitGroup/SIRVa/V.4.42.0.0/accreditamento-checklist_V4.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\FSE 2.0\it-fse-accreditamento-main\GATEWAY\S1#111ONIT0000000\OnitGroup\SIRVa\V.4.42.0.0\4-Certificato Vaccinale\Test1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6444E06-B2B2-4BCE-96A9-A65189C4039A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5970B0EF-0232-4709-A583-E2EDFCEF722A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8364" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1901,9 +1901,6 @@
     <t>subject_application_id:SIRVa</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.301.4.4.486de6ec417a5e210c978267b0d1ef467bebc88245de0a693a615bd80b48537a.9f86a71cef^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2023-02-08T11:42:55Z</t>
   </si>
   <si>
@@ -2160,6 +2157,9 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.301.4.4.622fa203554d3544da2eb20abaa415e69d7234adbbd7237c31944f2dd8af5239.1585cab492^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.301.4.4.486de6ec417a5e210c978267b0d1ef467bebc88245de0a693a615bd80b48537a.a9350829b9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -4315,10 +4315,10 @@
   <dimension ref="A1:T992"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I30" sqref="I30"/>
+      <selection pane="bottomRight" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4369,7 +4369,7 @@
       </c>
       <c r="B2" s="57"/>
       <c r="C2" s="58" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D2" s="57"/>
       <c r="F2" s="27"/>
@@ -4441,7 +4441,7 @@
       <c r="A5" s="63"/>
       <c r="B5" s="64"/>
       <c r="C5" s="65" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D5" s="57"/>
       <c r="F5" s="27"/>
@@ -5041,13 +5041,13 @@
         <v>44993</v>
       </c>
       <c r="G23" s="49" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H23" s="49" t="s">
+        <v>404</v>
+      </c>
+      <c r="I23" s="49" t="s">
         <v>405</v>
-      </c>
-      <c r="I23" s="49" t="s">
-        <v>406</v>
       </c>
       <c r="J23" s="41" t="s">
         <v>84</v>
@@ -5085,13 +5085,13 @@
         <v>44993</v>
       </c>
       <c r="G24" s="49" t="s">
+        <v>407</v>
+      </c>
+      <c r="H24" s="50" t="s">
         <v>408</v>
       </c>
-      <c r="H24" s="50" t="s">
+      <c r="I24" s="49" t="s">
         <v>409</v>
-      </c>
-      <c r="I24" s="49" t="s">
-        <v>410</v>
       </c>
       <c r="J24" s="41" t="s">
         <v>84</v>
@@ -5129,13 +5129,13 @@
         <v>44993</v>
       </c>
       <c r="G25" s="49" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H25" s="50" t="s">
+        <v>410</v>
+      </c>
+      <c r="I25" s="49" t="s">
         <v>411</v>
-      </c>
-      <c r="I25" s="49" t="s">
-        <v>412</v>
       </c>
       <c r="J25" s="41" t="s">
         <v>84</v>
@@ -5173,13 +5173,13 @@
         <v>44993</v>
       </c>
       <c r="G26" s="49" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H26" s="49" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I26" s="49" t="s">
-        <v>341</v>
+        <v>427</v>
       </c>
       <c r="J26" s="41" t="s">
         <v>84</v>
@@ -5217,13 +5217,13 @@
         <v>44993</v>
       </c>
       <c r="G27" s="49" t="s">
+        <v>416</v>
+      </c>
+      <c r="H27" s="49" t="s">
+        <v>415</v>
+      </c>
+      <c r="I27" s="49" t="s">
         <v>417</v>
-      </c>
-      <c r="H27" s="49" t="s">
-        <v>416</v>
-      </c>
-      <c r="I27" s="49" t="s">
-        <v>418</v>
       </c>
       <c r="J27" s="41" t="s">
         <v>84</v>
@@ -5261,13 +5261,13 @@
         <v>44993</v>
       </c>
       <c r="G28" s="49" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H28" s="49" t="s">
+        <v>418</v>
+      </c>
+      <c r="I28" s="49" t="s">
         <v>419</v>
-      </c>
-      <c r="I28" s="49" t="s">
-        <v>420</v>
       </c>
       <c r="J28" s="41" t="s">
         <v>84</v>
@@ -5305,13 +5305,13 @@
         <v>44993</v>
       </c>
       <c r="G29" s="49" t="s">
+        <v>422</v>
+      </c>
+      <c r="H29" s="49" t="s">
+        <v>421</v>
+      </c>
+      <c r="I29" s="49" t="s">
         <v>423</v>
-      </c>
-      <c r="H29" s="49" t="s">
-        <v>422</v>
-      </c>
-      <c r="I29" s="49" t="s">
-        <v>424</v>
       </c>
       <c r="J29" s="41" t="s">
         <v>84</v>
@@ -5349,13 +5349,13 @@
         <v>44993</v>
       </c>
       <c r="G30" s="49" t="s">
+        <v>424</v>
+      </c>
+      <c r="H30" s="49" t="s">
         <v>425</v>
       </c>
-      <c r="H30" s="49" t="s">
+      <c r="I30" s="49" t="s">
         <v>426</v>
-      </c>
-      <c r="I30" s="49" t="s">
-        <v>427</v>
       </c>
       <c r="J30" s="41" t="s">
         <v>84</v>
@@ -5631,13 +5631,13 @@
         <v>44965</v>
       </c>
       <c r="G38" s="49" t="s">
+        <v>341</v>
+      </c>
+      <c r="H38" s="49" t="s">
         <v>342</v>
       </c>
-      <c r="H38" s="49" t="s">
+      <c r="I38" s="49" t="s">
         <v>343</v>
-      </c>
-      <c r="I38" s="49" t="s">
-        <v>344</v>
       </c>
       <c r="J38" s="41" t="s">
         <v>84</v>
@@ -5654,7 +5654,7 @@
         <v>84</v>
       </c>
       <c r="P38" s="51" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q38" s="41"/>
       <c r="R38" s="44"/>
@@ -5683,13 +5683,13 @@
         <v>44965</v>
       </c>
       <c r="G39" s="49" t="s">
+        <v>345</v>
+      </c>
+      <c r="H39" s="49" t="s">
         <v>346</v>
       </c>
-      <c r="H39" s="49" t="s">
-        <v>347</v>
-      </c>
       <c r="I39" s="49" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J39" s="41" t="s">
         <v>84</v>
@@ -5706,7 +5706,7 @@
         <v>84</v>
       </c>
       <c r="P39" s="51" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="Q39" s="41"/>
       <c r="R39" s="44"/>
@@ -5871,13 +5871,13 @@
         <v>44965</v>
       </c>
       <c r="G44" s="49" t="s">
+        <v>348</v>
+      </c>
+      <c r="H44" s="49" t="s">
         <v>349</v>
       </c>
-      <c r="H44" s="49" t="s">
-        <v>350</v>
-      </c>
       <c r="I44" s="49" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J44" s="41" t="s">
         <v>84</v>
@@ -5894,7 +5894,7 @@
         <v>84</v>
       </c>
       <c r="P44" s="41" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Q44" s="41"/>
       <c r="R44" s="44"/>
@@ -5923,13 +5923,13 @@
         <v>44965</v>
       </c>
       <c r="G45" s="49" t="s">
+        <v>351</v>
+      </c>
+      <c r="H45" s="49" t="s">
         <v>352</v>
       </c>
-      <c r="H45" s="49" t="s">
-        <v>353</v>
-      </c>
       <c r="I45" s="49" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J45" s="41" t="s">
         <v>84</v>
@@ -5946,7 +5946,7 @@
         <v>84</v>
       </c>
       <c r="P45" s="51" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="Q45" s="41"/>
       <c r="R45" s="44"/>
@@ -6126,7 +6126,7 @@
       <c r="N50" s="41"/>
       <c r="O50" s="41"/>
       <c r="P50" s="41" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="Q50" s="41"/>
       <c r="R50" s="44" t="s">
@@ -6166,7 +6166,7 @@
       <c r="N51" s="41"/>
       <c r="O51" s="41"/>
       <c r="P51" s="51" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="Q51" s="41"/>
       <c r="R51" s="44" t="s">
@@ -7665,7 +7665,7 @@
         <v>321</v>
       </c>
       <c r="K95" s="41" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L95" s="41"/>
       <c r="M95" s="41"/>
@@ -7703,7 +7703,7 @@
         <v>321</v>
       </c>
       <c r="K96" s="41" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L96" s="41"/>
       <c r="M96" s="41"/>
@@ -7741,7 +7741,7 @@
         <v>321</v>
       </c>
       <c r="K97" s="41" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L97" s="41"/>
       <c r="M97" s="41"/>
@@ -7775,13 +7775,13 @@
         <v>44965</v>
       </c>
       <c r="G98" s="49" t="s">
+        <v>357</v>
+      </c>
+      <c r="H98" s="49" t="s">
         <v>358</v>
       </c>
-      <c r="H98" s="49" t="s">
+      <c r="I98" s="49" t="s">
         <v>359</v>
-      </c>
-      <c r="I98" s="49" t="s">
-        <v>360</v>
       </c>
       <c r="J98" s="41" t="s">
         <v>84</v>
@@ -7798,7 +7798,7 @@
         <v>84</v>
       </c>
       <c r="P98" s="41" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="Q98" s="41"/>
       <c r="R98" s="44"/>
@@ -7831,7 +7831,7 @@
         <v>321</v>
       </c>
       <c r="K99" s="41" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L99" s="41"/>
       <c r="M99" s="41"/>
@@ -7869,7 +7869,7 @@
         <v>321</v>
       </c>
       <c r="K100" s="41" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="L100" s="41"/>
       <c r="M100" s="41"/>
@@ -7907,7 +7907,7 @@
         <v>321</v>
       </c>
       <c r="K101" s="41" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="L101" s="41"/>
       <c r="M101" s="41"/>
@@ -7945,7 +7945,7 @@
         <v>321</v>
       </c>
       <c r="K102" s="41" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L102" s="41"/>
       <c r="M102" s="41"/>
@@ -7979,13 +7979,13 @@
         <v>44965</v>
       </c>
       <c r="G103" s="49" t="s">
+        <v>365</v>
+      </c>
+      <c r="H103" s="49" t="s">
         <v>366</v>
       </c>
-      <c r="H103" s="49" t="s">
+      <c r="I103" s="49" t="s">
         <v>367</v>
-      </c>
-      <c r="I103" s="49" t="s">
-        <v>368</v>
       </c>
       <c r="J103" s="41" t="s">
         <v>84</v>
@@ -8002,7 +8002,7 @@
         <v>84</v>
       </c>
       <c r="P103" s="52" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Q103" s="41"/>
       <c r="R103" s="44"/>
@@ -8035,7 +8035,7 @@
         <v>321</v>
       </c>
       <c r="K104" s="41" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L104" s="41"/>
       <c r="M104" s="41"/>
@@ -8069,13 +8069,13 @@
         <v>44965</v>
       </c>
       <c r="G105" s="49" t="s">
+        <v>371</v>
+      </c>
+      <c r="H105" s="49" t="s">
         <v>372</v>
       </c>
-      <c r="H105" s="49" t="s">
+      <c r="I105" s="49" t="s">
         <v>373</v>
-      </c>
-      <c r="I105" s="49" t="s">
-        <v>374</v>
       </c>
       <c r="J105" s="41" t="s">
         <v>84</v>
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="P105" s="52" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="Q105" s="41"/>
       <c r="R105" s="44"/>
@@ -8125,7 +8125,7 @@
         <v>321</v>
       </c>
       <c r="K106" s="41" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="L106" s="41"/>
       <c r="M106" s="41"/>
@@ -8159,16 +8159,16 @@
         <v>44965</v>
       </c>
       <c r="G107" s="49" t="s">
+        <v>376</v>
+      </c>
+      <c r="H107" s="49" t="s">
         <v>377</v>
       </c>
-      <c r="H107" s="49" t="s">
+      <c r="I107" s="49" t="s">
         <v>378</v>
       </c>
-      <c r="I107" s="49" t="s">
+      <c r="J107" s="41" t="s">
         <v>379</v>
-      </c>
-      <c r="J107" s="41" t="s">
-        <v>380</v>
       </c>
       <c r="K107" s="41"/>
       <c r="L107" s="41" t="s">
@@ -8182,7 +8182,7 @@
         <v>84</v>
       </c>
       <c r="P107" s="41" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="Q107" s="41"/>
       <c r="R107" s="44"/>
@@ -8215,7 +8215,7 @@
         <v>321</v>
       </c>
       <c r="K108" s="41" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L108" s="41"/>
       <c r="M108" s="41"/>
@@ -8253,7 +8253,7 @@
         <v>321</v>
       </c>
       <c r="K109" s="41" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L109" s="41"/>
       <c r="M109" s="41"/>
@@ -8291,7 +8291,7 @@
         <v>321</v>
       </c>
       <c r="K110" s="41" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L110" s="41"/>
       <c r="M110" s="41"/>
@@ -8325,13 +8325,13 @@
         <v>44965</v>
       </c>
       <c r="G111" s="53" t="s">
+        <v>382</v>
+      </c>
+      <c r="H111" s="49" t="s">
         <v>383</v>
       </c>
-      <c r="H111" s="49" t="s">
+      <c r="I111" s="49" t="s">
         <v>384</v>
-      </c>
-      <c r="I111" s="49" t="s">
-        <v>385</v>
       </c>
       <c r="J111" s="41" t="s">
         <v>84</v>
@@ -8348,7 +8348,7 @@
         <v>84</v>
       </c>
       <c r="P111" s="41" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="Q111" s="41"/>
       <c r="R111" s="44"/>
@@ -8381,7 +8381,7 @@
         <v>321</v>
       </c>
       <c r="K112" s="41" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L112" s="41"/>
       <c r="M112" s="41"/>
@@ -8419,7 +8419,7 @@
         <v>321</v>
       </c>
       <c r="K113" s="41" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="L113" s="41"/>
       <c r="M113" s="41"/>
@@ -8457,7 +8457,7 @@
         <v>321</v>
       </c>
       <c r="K114" s="41" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L114" s="41"/>
       <c r="M114" s="41"/>
@@ -8491,13 +8491,13 @@
         <v>44965</v>
       </c>
       <c r="G115" s="49" t="s">
+        <v>385</v>
+      </c>
+      <c r="H115" s="49" t="s">
         <v>386</v>
       </c>
-      <c r="H115" s="49" t="s">
+      <c r="I115" s="49" t="s">
         <v>387</v>
-      </c>
-      <c r="I115" s="49" t="s">
-        <v>388</v>
       </c>
       <c r="J115" s="41" t="s">
         <v>84</v>
@@ -8514,7 +8514,7 @@
         <v>84</v>
       </c>
       <c r="P115" s="41" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Q115" s="41"/>
       <c r="R115" s="44"/>
@@ -8547,7 +8547,7 @@
         <v>321</v>
       </c>
       <c r="K116" s="41" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="L116" s="41"/>
       <c r="M116" s="41"/>
@@ -8581,13 +8581,13 @@
         <v>44965</v>
       </c>
       <c r="G117" s="49" t="s">
+        <v>389</v>
+      </c>
+      <c r="H117" s="49" t="s">
         <v>390</v>
       </c>
-      <c r="H117" s="49" t="s">
+      <c r="I117" s="49" t="s">
         <v>391</v>
-      </c>
-      <c r="I117" s="49" t="s">
-        <v>392</v>
       </c>
       <c r="J117" s="41" t="s">
         <v>84</v>
@@ -8604,7 +8604,7 @@
         <v>84</v>
       </c>
       <c r="P117" s="41" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Q117" s="41"/>
       <c r="R117" s="44"/>
@@ -8637,7 +8637,7 @@
         <v>321</v>
       </c>
       <c r="K118" s="41" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L118" s="41"/>
       <c r="M118" s="41"/>
@@ -8671,13 +8671,13 @@
         <v>44965</v>
       </c>
       <c r="G119" s="49" t="s">
+        <v>393</v>
+      </c>
+      <c r="H119" s="49" t="s">
         <v>394</v>
       </c>
-      <c r="H119" s="49" t="s">
+      <c r="I119" s="49" t="s">
         <v>395</v>
-      </c>
-      <c r="I119" s="49" t="s">
-        <v>396</v>
       </c>
       <c r="J119" s="41" t="s">
         <v>84</v>
@@ -8694,7 +8694,7 @@
         <v>84</v>
       </c>
       <c r="P119" s="41" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Q119" s="41"/>
       <c r="R119" s="44"/>
@@ -8727,7 +8727,7 @@
         <v>321</v>
       </c>
       <c r="K120" s="41" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="L120" s="41"/>
       <c r="M120" s="41"/>
@@ -8765,7 +8765,7 @@
         <v>321</v>
       </c>
       <c r="K121" s="41" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L121" s="41"/>
       <c r="M121" s="41"/>
@@ -8799,13 +8799,13 @@
         <v>44965</v>
       </c>
       <c r="G122" s="49" t="s">
+        <v>398</v>
+      </c>
+      <c r="H122" s="49" t="s">
         <v>399</v>
       </c>
-      <c r="H122" s="49" t="s">
+      <c r="I122" s="49" t="s">
         <v>400</v>
-      </c>
-      <c r="I122" s="49" t="s">
-        <v>401</v>
       </c>
       <c r="J122" s="41" t="s">
         <v>84</v>
@@ -8822,7 +8822,7 @@
         <v>84</v>
       </c>
       <c r="P122" s="52" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Q122" s="41"/>
       <c r="R122" s="44"/>
@@ -26261,12 +26261,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -26501,20 +26503,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3F02EBF-A415-4FB6-A4E4-A6920890B7C4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAAC13FE-B745-460A-BC76-FAEE62F3EBA1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -26539,18 +26548,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAAC13FE-B745-460A-BC76-FAEE62F3EBA1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3F02EBF-A415-4FB6-A4E4-A6920890B7C4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/GATEWAY/S1#111ONIT0000000/OnitGroup/SIRVa/V.4.42.0.0/accreditamento-checklist_V4.2.xlsx
+++ b/GATEWAY/S1#111ONIT0000000/OnitGroup/SIRVa/V.4.42.0.0/accreditamento-checklist_V4.2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\FSE 2.0\it-fse-accreditamento-main\GATEWAY\S1#111ONIT0000000\OnitGroup\SIRVa\V.4.42.0.0\4-Certificato Vaccinale\Test1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\FSE 2.0\it-fse-accreditamento-main\GATEWAY\S1#111ONIT0000000\OnitGroup\SIRVa\V.4.42.0.0\4-Certificato Vaccinale\test2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5970B0EF-0232-4709-A583-E2EDFCEF722A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212E5B7C-44C9-4F11-97B7-C9A3436350DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8364" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9204" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="5" r:id="rId1"/>
@@ -2090,76 +2090,76 @@
     <t>subject_application_version: V.4.42.0.0</t>
   </si>
   <si>
-    <t>7afd7f499a530345</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.301.4.4.18f93001cf43131d4ddd4aa7d9033052325fac194b272c5ce7731e6ef3cf036f.ccbac8b49e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-03-08T12:16:47Z</t>
-  </si>
-  <si>
-    <t>2023-03-08T12:22:14Z</t>
-  </si>
-  <si>
-    <t>df66e0f21bb0bbcf</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.301.4.4.167d91771de940cb0bdf4f18ab87e314547613a170b46c6735d026801c544687.7c70bafed9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>434f3db5e58f65d7</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.301.4.4.b7dbff4495e09e3a58b4fe30bfb35e193daf31b09fa087f1a20ad37f001ecb5b.e2189cc949^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-03-08T12:27:25Z</t>
-  </si>
-  <si>
-    <t>ac00a7442a55b09d</t>
-  </si>
-  <si>
-    <t>2023-03-08T12:30:01Z</t>
-  </si>
-  <si>
-    <t>c9191232e58c8aa3</t>
-  </si>
-  <si>
-    <t>2023-03-08T14:14:27Z</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.301.4.4.1dfb0b67e4e771502b6fbc5c19319c2d9052a489bfc5c9a64e238b1124bc1cb0.b5cb235f22^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>f71f01413dbffd9d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.301.4.4.7da145ed84d814f754d76a359658b40e66bd5c82887b040ce3e3a9f76dc9063f.bb91af4214^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-03-08T14:17:44Z</t>
-  </si>
-  <si>
-    <t>09c66b9575030a8c</t>
-  </si>
-  <si>
-    <t>2023-03-08T14:20:19Z</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.301.4.4.3ed1bf8f9fb51f1798244223dabd1cde5cbea4e54d51e045966ce72511133f06.b059f6754b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-03-08T14:22:33Z</t>
-  </si>
-  <si>
-    <t>c9b700f82459bf75</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.301.4.4.622fa203554d3544da2eb20abaa415e69d7234adbbd7237c31944f2dd8af5239.1585cab492^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.301.4.4.486de6ec417a5e210c978267b0d1ef467bebc88245de0a693a615bd80b48537a.a9350829b9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>0e034fce91cf374b</t>
+  </si>
+  <si>
+    <t>2023-03-16T12:37:34Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.301.4.4.31a6d17732557248afa050e776e8af246d370b06713bd5474a365790cc71d34f.ca1faa6c22^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.301.4.4.bb61f61fdcf3fb3351aa145f31aa63f3d95902ebfa9c833bb556eebe93c9efea.74412eb250^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2b2887408c388702</t>
+  </si>
+  <si>
+    <t>2023-03-16T12:42:17Z</t>
+  </si>
+  <si>
+    <t>430fd80ea9a71dbc</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.301.4.4.63ba1afcc191f4d6767ca866115072a804814b3ec241e99fad5dfd55765ec1aa.778699e791^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-03-16T12:44:04Z</t>
+  </si>
+  <si>
+    <t>53069d007cd5ddcc</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.301.4.4.f1026648ce3776ad7a952e56938113aedd93406ccf081b9376b4df1a5da0a563.3d297c790e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-03-16T12:46:00Z</t>
+  </si>
+  <si>
+    <t>995a44c43391bd52</t>
+  </si>
+  <si>
+    <t>2023-03-16T12:47:51Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.301.4.4.9a47a85ed113415bbc7575a560234d6e8767ee2c803de2ff40e9c2d169d492da.83385f3efc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>d53486262288278b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.301.4.4.7da145ed84d814f754d76a359658b40e66bd5c82887b040ce3e3a9f76dc9063f.669ac93d1b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-03-16T12:50:09Z</t>
+  </si>
+  <si>
+    <t>82cfbb1a9f7ce884</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.301.4.4.0899f8cf2a7dd860598d2dea116e5c34ef310f3b78318781220163cf2b2ad4e5.a4e6caff24^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-03-16T12:52:25Z</t>
+  </si>
+  <si>
+    <t>1b58ccfa63d0ff01</t>
+  </si>
+  <si>
+    <t>2023-03-16T15:22:23Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.301.4.4.622fa203554d3544da2eb20abaa415e69d7234adbbd7237c31944f2dd8af5239.b4f876ca22^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -4315,10 +4315,10 @@
   <dimension ref="A1:T992"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I26" sqref="I26"/>
+      <selection pane="bottomRight" activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5038,16 +5038,16 @@
         <v>57</v>
       </c>
       <c r="F23" s="48">
-        <v>44993</v>
+        <v>45001</v>
       </c>
       <c r="G23" s="49" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H23" s="49" t="s">
         <v>404</v>
       </c>
       <c r="I23" s="49" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="J23" s="41" t="s">
         <v>84</v>
@@ -5082,16 +5082,16 @@
         <v>59</v>
       </c>
       <c r="F24" s="48">
-        <v>44993</v>
+        <v>45001</v>
       </c>
       <c r="G24" s="49" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H24" s="50" t="s">
         <v>408</v>
       </c>
       <c r="I24" s="49" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="J24" s="41" t="s">
         <v>84</v>
@@ -5126,7 +5126,7 @@
         <v>61</v>
       </c>
       <c r="F25" s="48">
-        <v>44993</v>
+        <v>45001</v>
       </c>
       <c r="G25" s="49" t="s">
         <v>412</v>
@@ -5170,16 +5170,16 @@
         <v>63</v>
       </c>
       <c r="F26" s="48">
-        <v>44993</v>
+        <v>45001</v>
       </c>
       <c r="G26" s="49" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H26" s="49" t="s">
         <v>413</v>
       </c>
       <c r="I26" s="49" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="J26" s="41" t="s">
         <v>84</v>
@@ -5214,16 +5214,16 @@
         <v>66</v>
       </c>
       <c r="F27" s="48">
-        <v>44993</v>
+        <v>45001</v>
       </c>
       <c r="G27" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="H27" s="49" t="s">
         <v>416</v>
       </c>
-      <c r="H27" s="49" t="s">
-        <v>415</v>
-      </c>
       <c r="I27" s="49" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="J27" s="41" t="s">
         <v>84</v>
@@ -5258,16 +5258,16 @@
         <v>68</v>
       </c>
       <c r="F28" s="48">
-        <v>44993</v>
+        <v>45001</v>
       </c>
       <c r="G28" s="49" t="s">
+        <v>421</v>
+      </c>
+      <c r="H28" s="49" t="s">
+        <v>419</v>
+      </c>
+      <c r="I28" s="49" t="s">
         <v>420</v>
-      </c>
-      <c r="H28" s="49" t="s">
-        <v>418</v>
-      </c>
-      <c r="I28" s="49" t="s">
-        <v>419</v>
       </c>
       <c r="J28" s="41" t="s">
         <v>84</v>
@@ -5302,13 +5302,13 @@
         <v>70</v>
       </c>
       <c r="F29" s="48">
-        <v>44993</v>
+        <v>45001</v>
       </c>
       <c r="G29" s="49" t="s">
+        <v>424</v>
+      </c>
+      <c r="H29" s="49" t="s">
         <v>422</v>
-      </c>
-      <c r="H29" s="49" t="s">
-        <v>421</v>
       </c>
       <c r="I29" s="49" t="s">
         <v>423</v>
@@ -5346,16 +5346,16 @@
         <v>72</v>
       </c>
       <c r="F30" s="48">
-        <v>44993</v>
+        <v>45001</v>
       </c>
       <c r="G30" s="49" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="H30" s="49" t="s">
         <v>425</v>
       </c>
       <c r="I30" s="49" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="J30" s="41" t="s">
         <v>84</v>
@@ -26261,6 +26261,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
@@ -26271,7 +26280,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b4730850ec8220df2460bf5d75163141">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c2168c1cf3d5a08369735c09b24c7b76" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -26502,16 +26511,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3F02EBF-A415-4FB6-A4E4-A6920890B7C4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAAC13FE-B745-460A-BC76-FAEE62F3EBA1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -26528,7 +26536,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6395DAD-5B77-46ED-9147-4C5A384B6E5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26547,14 +26555,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3F02EBF-A415-4FB6-A4E4-A6920890B7C4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>

--- a/GATEWAY/S1#111ONIT0000000/OnitGroup/SIRVa/V.4.42.0.0/accreditamento-checklist_V4.2.xlsx
+++ b/GATEWAY/S1#111ONIT0000000/OnitGroup/SIRVa/V.4.42.0.0/accreditamento-checklist_V4.2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\FSE 2.0\it-fse-accreditamento-main\GATEWAY\S1#111ONIT0000000\OnitGroup\SIRVa\V.4.42.0.0\4-Certificato Vaccinale\test2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\FSE 2.0\it-fse-accreditamento-main\GATEWAY\S1#111ONIT0000000\OnitGroup\SIRVa\V.4.42.0.0\3-Scheda Singola Vaccinazione\test3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212E5B7C-44C9-4F11-97B7-C9A3436350DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE50595-59E3-4AA9-BA89-4AE9972E3FD5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9204" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2144,15 +2144,6 @@
     <t>2023-03-16T12:50:09Z</t>
   </si>
   <si>
-    <t>82cfbb1a9f7ce884</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.301.4.4.0899f8cf2a7dd860598d2dea116e5c34ef310f3b78318781220163cf2b2ad4e5.a4e6caff24^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-03-16T12:52:25Z</t>
-  </si>
-  <si>
     <t>1b58ccfa63d0ff01</t>
   </si>
   <si>
@@ -2160,6 +2151,15 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.301.4.4.622fa203554d3544da2eb20abaa415e69d7234adbbd7237c31944f2dd8af5239.b4f876ca22^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-03-23T08:31:50Z</t>
+  </si>
+  <si>
+    <t>dd367cc8d897d8a9</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.301.4.4.0899f8cf2a7dd860598d2dea116e5c34ef310f3b78318781220163cf2b2ad4e5.a10c5be9e8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -4315,10 +4315,10 @@
   <dimension ref="A1:T992"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I30" sqref="I30"/>
+      <selection pane="bottomRight" activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5302,16 +5302,16 @@
         <v>70</v>
       </c>
       <c r="F29" s="48">
-        <v>45001</v>
+        <v>45008</v>
       </c>
       <c r="G29" s="49" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H29" s="49" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="I29" s="49" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="J29" s="41" t="s">
         <v>84</v>
@@ -5349,13 +5349,13 @@
         <v>45001</v>
       </c>
       <c r="G30" s="49" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="H30" s="49" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="I30" s="49" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="J30" s="41" t="s">
         <v>84</v>
@@ -26270,17 +26270,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b4730850ec8220df2460bf5d75163141">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c2168c1cf3d5a08369735c09b24c7b76" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -26511,6 +26500,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3F02EBF-A415-4FB6-A4E4-A6920890B7C4}">
   <ds:schemaRefs>
@@ -26520,23 +26520,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAAC13FE-B745-460A-BC76-FAEE62F3EBA1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6395DAD-5B77-46ED-9147-4C5A384B6E5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26555,6 +26538,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAAC13FE-B745-460A-BC76-FAEE62F3EBA1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>

--- a/GATEWAY/S1#111ONIT0000000/OnitGroup/SIRVa/V.4.42.0.0/accreditamento-checklist_V4.2.xlsx
+++ b/GATEWAY/S1#111ONIT0000000/OnitGroup/SIRVa/V.4.42.0.0/accreditamento-checklist_V4.2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\FSE 2.0\it-fse-accreditamento-main\GATEWAY\S1#111ONIT0000000\OnitGroup\SIRVa\V.4.42.0.0\3-Scheda Singola Vaccinazione\test3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\FSE 2.0\it-fse-accreditamento-main\GATEWAY\S1#111ONIT0000000\OnitGroup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE50595-59E3-4AA9-BA89-4AE9972E3FD5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5E81BD-84A0-4DC5-BDE0-CC803610E06A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9204" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2042,9 +2042,6 @@
     <t>2.16.840.1.113883.2.9.2.301.4.4.49962125ea082d930d4990097f1b61e13008b670d046a5a161ce9d13dee748ef.2e5ab99d48^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>Viene segnalato l'errore</t>
-  </si>
-  <si>
     <t>2023-02-08T17:12:16Z</t>
   </si>
   <si>
@@ -2160,6 +2157,9 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.301.4.4.0899f8cf2a7dd860598d2dea116e5c34ef310f3b78318781220163cf2b2ad4e5.a10c5be9e8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Viene segnalato l'errore del contenuto del messaggio. Dopo la modifica dei dati viene effettuato il reinvio</t>
   </si>
 </sst>
 </file>
@@ -2935,10 +2935,16 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="Prerequisiti"/>
+      <sheetName val="TestCases"/>
+      <sheetName val="Summary"/>
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4315,10 +4321,10 @@
   <dimension ref="A1:T992"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F113" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I29" sqref="I29"/>
+      <selection pane="bottomRight" activeCell="P115" sqref="P115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4441,7 +4447,7 @@
       <c r="A5" s="63"/>
       <c r="B5" s="64"/>
       <c r="C5" s="65" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D5" s="57"/>
       <c r="F5" s="27"/>
@@ -5041,13 +5047,13 @@
         <v>45001</v>
       </c>
       <c r="G23" s="49" t="s">
+        <v>404</v>
+      </c>
+      <c r="H23" s="49" t="s">
+        <v>403</v>
+      </c>
+      <c r="I23" s="49" t="s">
         <v>405</v>
-      </c>
-      <c r="H23" s="49" t="s">
-        <v>404</v>
-      </c>
-      <c r="I23" s="49" t="s">
-        <v>406</v>
       </c>
       <c r="J23" s="41" t="s">
         <v>84</v>
@@ -5085,13 +5091,13 @@
         <v>45001</v>
       </c>
       <c r="G24" s="49" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H24" s="50" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I24" s="49" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J24" s="41" t="s">
         <v>84</v>
@@ -5129,13 +5135,13 @@
         <v>45001</v>
       </c>
       <c r="G25" s="49" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H25" s="50" t="s">
+        <v>409</v>
+      </c>
+      <c r="I25" s="49" t="s">
         <v>410</v>
-      </c>
-      <c r="I25" s="49" t="s">
-        <v>411</v>
       </c>
       <c r="J25" s="41" t="s">
         <v>84</v>
@@ -5173,13 +5179,13 @@
         <v>45001</v>
       </c>
       <c r="G26" s="49" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H26" s="49" t="s">
+        <v>412</v>
+      </c>
+      <c r="I26" s="49" t="s">
         <v>413</v>
-      </c>
-      <c r="I26" s="49" t="s">
-        <v>414</v>
       </c>
       <c r="J26" s="41" t="s">
         <v>84</v>
@@ -5217,13 +5223,13 @@
         <v>45001</v>
       </c>
       <c r="G27" s="49" t="s">
+        <v>416</v>
+      </c>
+      <c r="H27" s="49" t="s">
+        <v>415</v>
+      </c>
+      <c r="I27" s="49" t="s">
         <v>417</v>
-      </c>
-      <c r="H27" s="49" t="s">
-        <v>416</v>
-      </c>
-      <c r="I27" s="49" t="s">
-        <v>418</v>
       </c>
       <c r="J27" s="41" t="s">
         <v>84</v>
@@ -5261,13 +5267,13 @@
         <v>45001</v>
       </c>
       <c r="G28" s="49" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H28" s="49" t="s">
+        <v>418</v>
+      </c>
+      <c r="I28" s="49" t="s">
         <v>419</v>
-      </c>
-      <c r="I28" s="49" t="s">
-        <v>420</v>
       </c>
       <c r="J28" s="41" t="s">
         <v>84</v>
@@ -5305,13 +5311,13 @@
         <v>45008</v>
       </c>
       <c r="G29" s="49" t="s">
+        <v>424</v>
+      </c>
+      <c r="H29" s="49" t="s">
         <v>425</v>
       </c>
-      <c r="H29" s="49" t="s">
+      <c r="I29" s="49" t="s">
         <v>426</v>
-      </c>
-      <c r="I29" s="49" t="s">
-        <v>427</v>
       </c>
       <c r="J29" s="41" t="s">
         <v>84</v>
@@ -5349,13 +5355,13 @@
         <v>45001</v>
       </c>
       <c r="G30" s="49" t="s">
+        <v>422</v>
+      </c>
+      <c r="H30" s="49" t="s">
+        <v>421</v>
+      </c>
+      <c r="I30" s="49" t="s">
         <v>423</v>
-      </c>
-      <c r="H30" s="49" t="s">
-        <v>422</v>
-      </c>
-      <c r="I30" s="49" t="s">
-        <v>424</v>
       </c>
       <c r="J30" s="41" t="s">
         <v>84</v>
@@ -5946,7 +5952,7 @@
         <v>84</v>
       </c>
       <c r="P45" s="51" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Q45" s="41"/>
       <c r="R45" s="44"/>
@@ -8457,7 +8463,7 @@
         <v>321</v>
       </c>
       <c r="K114" s="41" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L114" s="41"/>
       <c r="M114" s="41"/>
@@ -8514,7 +8520,7 @@
         <v>84</v>
       </c>
       <c r="P115" s="41" t="s">
-        <v>388</v>
+        <v>427</v>
       </c>
       <c r="Q115" s="41"/>
       <c r="R115" s="44"/>
@@ -8581,13 +8587,13 @@
         <v>44965</v>
       </c>
       <c r="G117" s="49" t="s">
+        <v>388</v>
+      </c>
+      <c r="H117" s="49" t="s">
         <v>389</v>
       </c>
-      <c r="H117" s="49" t="s">
+      <c r="I117" s="49" t="s">
         <v>390</v>
-      </c>
-      <c r="I117" s="49" t="s">
-        <v>391</v>
       </c>
       <c r="J117" s="41" t="s">
         <v>84</v>
@@ -8604,7 +8610,7 @@
         <v>84</v>
       </c>
       <c r="P117" s="41" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Q117" s="41"/>
       <c r="R117" s="44"/>
@@ -8671,13 +8677,13 @@
         <v>44965</v>
       </c>
       <c r="G119" s="49" t="s">
+        <v>392</v>
+      </c>
+      <c r="H119" s="49" t="s">
         <v>393</v>
       </c>
-      <c r="H119" s="49" t="s">
+      <c r="I119" s="49" t="s">
         <v>394</v>
-      </c>
-      <c r="I119" s="49" t="s">
-        <v>395</v>
       </c>
       <c r="J119" s="41" t="s">
         <v>84</v>
@@ -8694,7 +8700,7 @@
         <v>84</v>
       </c>
       <c r="P119" s="41" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q119" s="41"/>
       <c r="R119" s="44"/>
@@ -8765,7 +8771,7 @@
         <v>321</v>
       </c>
       <c r="K121" s="41" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="L121" s="41"/>
       <c r="M121" s="41"/>
@@ -8799,13 +8805,13 @@
         <v>44965</v>
       </c>
       <c r="G122" s="49" t="s">
+        <v>397</v>
+      </c>
+      <c r="H122" s="49" t="s">
         <v>398</v>
       </c>
-      <c r="H122" s="49" t="s">
+      <c r="I122" s="49" t="s">
         <v>399</v>
-      </c>
-      <c r="I122" s="49" t="s">
-        <v>400</v>
       </c>
       <c r="J122" s="41" t="s">
         <v>84</v>
@@ -8822,7 +8828,7 @@
         <v>84</v>
       </c>
       <c r="P122" s="52" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q122" s="41"/>
       <c r="R122" s="44"/>
@@ -26270,6 +26276,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b4730850ec8220df2460bf5d75163141">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c2168c1cf3d5a08369735c09b24c7b76" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -26500,17 +26517,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3F02EBF-A415-4FB6-A4E4-A6920890B7C4}">
   <ds:schemaRefs>
@@ -26520,6 +26526,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAAC13FE-B745-460A-BC76-FAEE62F3EBA1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6395DAD-5B77-46ED-9147-4C5A384B6E5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26538,23 +26561,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAAC13FE-B745-460A-BC76-FAEE62F3EBA1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>
